--- a/重用库prt/O型圈凹凸面法兰.xlsx
+++ b/重用库prt/O型圈凹凸面法兰.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\workspace\3.20qh超高音速风洞\3D\工具\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\ug-automation\重用库prt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83CFDAC5-B3F6-4B92-B492-F64BA82242FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B28721-0FA3-4F1F-B430-190B8D9C92D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10546" tabRatio="544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10546" tabRatio="544" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="法兰尺寸控制" sheetId="5" r:id="rId1"/>
@@ -661,7 +661,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -695,6 +695,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -706,12 +709,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1362,16 +1359,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>552450</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>76200</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>128588</xdr:rowOff>
+          <xdr:rowOff>166688</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1788,7 +1785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8A328C4-6415-4B3B-8670-DEE63725A4F7}">
   <dimension ref="A11:S26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -1885,13 +1882,13 @@
       <c r="L15" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="M15" s="19" t="s">
+      <c r="M15" s="2" t="s">
         <v>113</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="O15" s="19" t="s">
+      <c r="O15" s="2" t="s">
         <v>119</v>
       </c>
       <c r="P15" s="14" t="s">
@@ -1923,7 +1920,7 @@
       <c r="E16" s="6">
         <v>8</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16" s="15">
         <v>30</v>
       </c>
       <c r="G16" s="6">
@@ -2038,17 +2035,17 @@
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
       <c r="L23" t="s">
         <v>134</v>
       </c>
@@ -3323,13 +3320,13 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="79.150000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
       <c r="K2" s="3" t="s">
         <v>85</v>
       </c>
@@ -3370,26 +3367,26 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="17" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="16" t="s">
+      <c r="D4" s="18"/>
+      <c r="E4" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16" t="s">
+      <c r="F4" s="17"/>
+      <c r="G4" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16" t="s">
+      <c r="H4" s="17"/>
+      <c r="I4" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="J4" s="16"/>
+      <c r="J4" s="17"/>
       <c r="O4" s="2" t="s">
         <v>94</v>
       </c>
@@ -3425,12 +3422,12 @@
       <c r="J5" s="2">
         <v>109</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="K5" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
@@ -3463,10 +3460,10 @@
       <c r="J6" s="2">
         <v>112</v>
       </c>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
@@ -3499,10 +3496,10 @@
       <c r="J7" s="2">
         <v>115</v>
       </c>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
@@ -3535,10 +3532,10 @@
       <c r="J8" s="2">
         <v>118</v>
       </c>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
@@ -3571,10 +3568,10 @@
       <c r="J9" s="2">
         <v>122</v>
       </c>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
@@ -3607,10 +3604,10 @@
       <c r="J10" s="2">
         <v>125</v>
       </c>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
@@ -3643,10 +3640,10 @@
       <c r="J11" s="2">
         <v>128</v>
       </c>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
@@ -5322,11 +5319,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="4" topLeftCell="D41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -6104,16 +6101,16 @@
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
-                    <xdr:col>1</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>552450</xdr:colOff>
                     <xdr:row>0</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>342900</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>128588</xdr:rowOff>
+                    <xdr:rowOff>166688</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
